--- a/회원목록_0315.xlsx
+++ b/회원목록_0315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnt\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA7602E-837D-46FD-BCDE-CC1B6361A622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B7865A-9A66-4F10-8FAF-8CBD332755E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="10620" windowWidth="29040" windowHeight="15840" xr2:uid="{8E54118A-5F68-4FCF-AEF6-8B6D31A16CB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>점화걸면정화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88C5344-5D99-4E95-B100-5B1C4D9566BE}">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -773,9 +773,6 @@
       <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
